--- a/Szoftvermodellezés és tesztelés/Architektúra tervezés/Teszteset.xlsx
+++ b/Szoftvermodellezés és tesztelés/Architektúra tervezés/Teszteset.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6437A30C-52FE-421D-B676-35F31FF0387A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6F2431-D75A-4C8A-8011-796E4C92D359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="0" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Teszteset ID</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>TE_09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t>not run</t>
   </si>
 </sst>
 </file>
@@ -300,6 +306,75 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -308,75 +383,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -662,7 +668,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:K4"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -675,409 +681,439 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="8"/>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="18" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="18" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="24" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="26" t="s">
+      <c r="I3" s="11"/>
+      <c r="J3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="26"/>
+      <c r="K3" s="19"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="27"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="30">
+      <c r="E5" s="16"/>
+      <c r="F5" s="12">
         <v>44693</v>
       </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="24" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="11"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>1</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>2</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>1</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>2</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>3</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
     </row>
     <row r="16" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="21" t="s">
+      <c r="C16" s="18"/>
+      <c r="D16" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="12" t="s">
+      <c r="E16" s="29"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="12" t="s">
+      <c r="H16" s="27"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="13"/>
+      <c r="K16" s="26"/>
     </row>
     <row r="17" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>1</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="14" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="14" t="s">
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="14" t="s">
+      <c r="H17" s="23"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="15"/>
+      <c r="K17" s="24"/>
     </row>
     <row r="18" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>2</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="14" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="14" t="s">
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="15"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="24"/>
     </row>
     <row r="19" spans="1:11" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>3</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="14" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="14" t="s">
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="15"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>1</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A20:K20"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A4:K4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:K1"/>
     <mergeCell ref="D1:E1"/>
@@ -1094,36 +1130,6 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="F2:K2"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B9:K9"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="B21:K21"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A20:K20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
